--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/FactionInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/FactionInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37936AC0-3A24-434B-AC83-FB2CEA4DEBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A6E90-7BB6-4D41-AB30-68D5C22B916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,15 +50,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高等精灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺瓦帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高山矮人</t>
+    <t>汉帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -440,14 +436,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
